--- a/BigContest/DataDescription_final.xlsx
+++ b/BigContest/DataDescription_final.xlsx
@@ -1214,18 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1230,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1615,7 +1615,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1648,903 +1648,903 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="20">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="A4" s="14">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="A5" s="30">
+        <v>52</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="20">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="24"/>
+      <c r="A6" s="26">
+        <v>57</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="24"/>
+      <c r="A7" s="14">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="A8" s="26">
+        <v>55</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="20">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="A9" s="26">
+        <v>54</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="A10" s="14">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>172</v>
+        <v>161</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="20">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="24"/>
+      <c r="A15" s="26">
+        <v>59</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="20">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="24"/>
+      <c r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="14">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="A18" s="20">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="14">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="A19" s="20">
+        <v>12</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="14">
-        <v>19</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="18"/>
+      <c r="A21" s="20">
+        <v>10</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>145</v>
+        <v>119</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>141</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="14">
-        <v>22</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="A24" s="26">
+        <v>63</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="14">
-        <v>23</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="18"/>
+      <c r="A25" s="20">
+        <v>13</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>128</v>
+        <v>155</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="14">
-        <v>26</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="18"/>
+      <c r="A28" s="20">
+        <v>5</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>102</v>
+        <v>152</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="14">
-        <v>36</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="18"/>
+      <c r="A38" s="26">
+        <v>67</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="14">
-        <v>39</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="18"/>
+      <c r="A41" s="26">
+        <v>65</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>72</v>
+        <v>135</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
+        <v>25</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="26">
+        <v>60</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="26">
+        <v>68</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="26">
+        <v>58</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="26">
+        <v>62</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="14">
+        <v>16</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="26">
+        <v>66</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="14">
+        <v>33</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="30">
+        <v>53</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="14">
-        <v>48</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="14">
-        <v>49</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="14">
-        <v>50</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="18"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="14">
-        <v>51</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="34">
-        <v>52</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="37" t="s">
+      <c r="D57" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="34">
-        <v>53</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="26">
-        <v>54</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="26">
-        <v>55</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="28" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="20">
+        <v>4</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="20">
+        <v>11</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="14">
+        <v>36</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="14">
+        <v>31</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="14">
         <v>40</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="26">
-        <v>56</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="26">
-        <v>57</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="26">
-        <v>58</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="26">
-        <v>59</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="26">
-        <v>60</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="29"/>
+      <c r="B62" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="26">
@@ -2563,110 +2563,113 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="26">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E64" s="29"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E65" s="29"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="26">
-        <v>64</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="29"/>
+      <c r="A66" s="20">
+        <v>7</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="26">
-        <v>65</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="29"/>
+      <c r="A67" s="14">
+        <v>26</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="26">
-        <v>66</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="27" t="s">
+      <c r="A68" s="20">
         <v>6</v>
       </c>
-      <c r="E68" s="29"/>
+      <c r="B68" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" s="26">
-        <v>67</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="29"/>
+      <c r="A69" s="14">
+        <v>44</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="30">
-        <v>68</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="33"/>
+      <c r="A70" s="36">
+        <v>27</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="39"/>
     </row>
   </sheetData>
+  <sortState ref="A4:E70">
+    <sortCondition ref="B2:B70"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
